--- a/imagingTransaction.xlsx
+++ b/imagingTransaction.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/Documents/GitHub/Imaging_Transactions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79850D-89B6-BA44-BE85-C86D6B918C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617E226-9783-0342-8940-F02C53E136C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23080" windowHeight="16420" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="16420" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
   </bookViews>
   <sheets>
     <sheet name="FillOrder" sheetId="2" r:id="rId1"/>
-    <sheet name="RequestForm" sheetId="3" r:id="rId2"/>
+    <sheet name="FilledForm" sheetId="4" r:id="rId2"/>
+    <sheet name="RequestForm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>VDI (Micro)</t>
   </si>
@@ -132,6 +133,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -141,17 +148,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="127">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -183,6 +184,227 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -194,16 +416,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -224,16 +436,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -244,6 +446,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -254,16 +466,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -284,11 +486,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -314,16 +516,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -334,11 +526,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -364,6 +556,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -374,16 +586,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -394,6 +596,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -404,11 +626,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -419,6 +641,698 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -735,7 +1649,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,17 +1658,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -762,21 +1676,21 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 1, TRUE)</f>
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="1">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 2, TRUE)</f>
-        <v>43763</v>
+        <v>43770</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -785,40 +1699,40 @@
       </c>
       <c r="B3">
         <f ca="1">I2-B2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -836,10 +1750,10 @@
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -849,64 +1763,68 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 3, TRUE)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 3, TRUE)</f>
         <v>0</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 4, TRUE)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 4, TRUE)</f>
         <v>0</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 5, TRUE)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>6</v>
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 5, TRUE)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 6, TRUE)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>6</v>
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 6, TRUE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -937,41 +1855,39 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 7, TRUE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 7, TRUE)</f>
         <v>0</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 8, TRUE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 8, TRUE)</f>
         <v>0</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 9, TRUE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 9, TRUE)</f>
         <v>0</v>
       </c>
       <c r="H13" s="2">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 10, TRUE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 10, TRUE)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="H6:I6"/>
@@ -979,93 +1895,99 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="126" priority="26">
       <formula>AND($B$3&lt;2, B8&lt;&gt;A8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="125" priority="27">
       <formula>AND($B$3&lt;4, B8&lt;&gt;A8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="124" priority="25">
       <formula>B8=A8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="123" priority="22">
       <formula>D8=C8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="122" priority="23">
       <formula>AND($B$3&lt;2, D8&lt;&gt;C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="121" priority="24">
       <formula>AND($B$3&lt;4, D8&lt;&gt;C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G6">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>G8=F8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>AND($B$3&lt;2, G8&lt;&gt;F8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>AND($B$3&lt;4, G8&lt;&gt;F8)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="117" priority="16">
       <formula>I8=H8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="116" priority="17">
       <formula>AND($B$3&lt;2, I8&lt;&gt;H8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="115" priority="18">
       <formula>AND($B$3&lt;4, I8&lt;&gt;H8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="114" priority="13">
       <formula>B13=A13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="113" priority="14">
       <formula>AND($B$3&lt;2, B13&lt;&gt;A13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>AND($B$3&lt;4, B13&lt;&gt;A13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="111" priority="10">
       <formula>D13=C13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="110" priority="11">
       <formula>AND($B$3&lt;2, D13&lt;&gt;C13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="109" priority="12">
       <formula>AND($B$3&lt;4, D13&lt;&gt;C13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="108" priority="7">
       <formula>G13=F13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="107" priority="8">
       <formula>AND($B$3&lt;2, G13&lt;&gt;F13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="106" priority="9">
       <formula>AND($B$3&lt;4, G13&lt;&gt;F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:I11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="105" priority="4">
       <formula>I13=H13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="104" priority="5">
       <formula>AND($B$3&lt;2, I13&lt;&gt;H13)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="103" priority="6">
+      <formula>AND($B$3&lt;4, I13&lt;&gt;H13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>G8=F8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND($B$3&lt;2, G8&lt;&gt;F8)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND($B$3&lt;4, I13&lt;&gt;H13)</formula>
+      <formula>AND($B$3&lt;4, G8&lt;&gt;F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,32 +1995,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE05CBBA-7A13-B845-8E05-8C1CA20BBA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C714AA-22DD-1F49-8E8E-1C66F1FC6FCA}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1140,28 +2062,28 @@
         <v>43763</v>
       </c>
       <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,6 +2093,30 @@
       <c r="B4" s="1">
         <v>43770</v>
       </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1179,6 +2125,30 @@
       <c r="B5" s="1">
         <v>43777</v>
       </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1187,6 +2157,30 @@
       <c r="B6" s="1">
         <v>43784</v>
       </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1195,6 +2189,30 @@
       <c r="B7" s="1">
         <v>43791</v>
       </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1203,6 +2221,30 @@
       <c r="B8" s="1">
         <v>43798</v>
       </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1211,6 +2253,30 @@
       <c r="B9" s="1">
         <v>43805</v>
       </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1219,6 +2285,30 @@
       <c r="B10" s="1">
         <v>43812</v>
       </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1227,6 +2317,30 @@
       <c r="B11" s="1">
         <v>43819</v>
       </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1235,6 +2349,30 @@
       <c r="B12" s="1">
         <v>43826</v>
       </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1242,6 +2380,30 @@
       </c>
       <c r="B13" s="1">
         <v>43833</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1252,5 +2414,606 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="32" id="{1EF4FE21-B883-F445-9F13-AF41FA244BF7}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="31" id="{36F5F4DC-D6B8-204A-B5AA-CF8E8C8B7582}">
+            <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{1540F877-2035-7343-BEB7-B82720FC5241}">
+            <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{7A1FC002-E53B-884A-AB7A-2EC7D2B6EA9F}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{FFD34606-84B9-A141-9B98-B66CBD4B84C1}">
+            <xm:f>FillOrder!$B$2&gt;=$B4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{FAF1374A-1EE2-0C43-8543-C785868DFC01}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A4, FillOrder!$B$2 &lt; $B4)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C4:J13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE05CBBA-7A13-B845-8E05-8C1CA20BBA06}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43763</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43777</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43784</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43791</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43791</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43798</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43805</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43812</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43819</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43826</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43833</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="10" id="{DA47B4CC-8F62-C249-88AF-A5508F239A7B}">
+            <xm:f>AND(FilledForm!C3&lt;C3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="9" id="{1EDF2F9F-53E4-C34B-9ED5-9D97CFE345D4}">
+            <xm:f>AND(FilledForm!C3&gt;=C3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{F00E28BE-4497-6A43-B9EB-C6E3592F86B0}">
+            <xm:f>AND(FilledForm!D3&gt;=D3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{C8CB4441-19CA-8D44-914B-AFC657CD3E22}">
+            <xm:f>AND(FilledForm!D3&lt;D3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{6F699458-E7BE-B841-B4FB-0EBA5A30B891}">
+            <xm:f>AND(FilledForm!C4&gt;=C4, FillOrder!$B$2 &gt;= $B4, FillOrder!$B$2 &gt; $A4 )</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{80EF0B66-0299-CC4F-9BCC-238479A1C875}">
+            <xm:f>AND(FilledForm!C4&lt;C4, FillOrder!$B$2 &gt;= $B4, FillOrder!$B$2 &gt; $A4)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C4:J13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/imagingTransaction.xlsx
+++ b/imagingTransaction.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/Documents/GitHub/Imaging_Transactions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617E226-9783-0342-8940-F02C53E136C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADD9370-D4D1-D948-A995-3932FEE91ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="16420" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="27200" windowHeight="16420" activeTab="2" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
   </bookViews>
   <sheets>
     <sheet name="FillOrder" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>VDI (Micro)</t>
   </si>
@@ -79,6 +79,15 @@
   <si>
     <t>DAYS LEFT</t>
   </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Win7 (SFF)</t>
+  </si>
+  <si>
+    <t>Win7 (Micro)</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,16 +152,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -174,6 +229,57 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -184,9 +290,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -201,9 +310,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -219,6 +341,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -228,9 +370,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -245,9 +400,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -262,9 +430,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -279,9 +460,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -296,111 +490,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -411,928 +506,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1646,10 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7861EF8B-E02F-E440-A92D-81512D641530}">
-  <dimension ref="A1:I13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1658,17 +832,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1678,17 +852,17 @@
         <f ca="1">TODAY()</f>
         <v>43763</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="12">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 1, TRUE)</f>
         <v>43763</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="12">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 2, TRUE)</f>
         <v>43770</v>
       </c>
@@ -1703,36 +877,36 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1795,36 +969,36 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1886,7 +1060,63 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>7040</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7010</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7040</v>
+      </c>
+      <c r="D18" s="8">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>7050</v>
+      </c>
+      <c r="B19" s="8">
+        <v>7020</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7050</v>
+      </c>
+      <c r="D19" s="8">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
+        <v>3020</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F5:I5"/>
@@ -1903,90 +1133,90 @@
     <mergeCell ref="F11:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="126" priority="26">
+    <cfRule type="expression" dxfId="34" priority="25">
+      <formula>B8=A8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>AND($B$3&lt;2, B8&lt;&gt;A8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>AND($B$3&lt;4, B8&lt;&gt;A8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="25">
-      <formula>B8=A8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6">
-    <cfRule type="expression" dxfId="123" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>D8=C8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="23">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>AND($B$3&lt;2, D8&lt;&gt;C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>AND($B$3&lt;4, D8&lt;&gt;C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6">
-    <cfRule type="expression" dxfId="117" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>I8=H8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>AND($B$3&lt;2, I8&lt;&gt;H8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>AND($B$3&lt;4, I8&lt;&gt;H8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="expression" dxfId="114" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>B13=A13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>AND($B$3&lt;2, B13&lt;&gt;A13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>AND($B$3&lt;4, B13&lt;&gt;A13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="111" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>D13=C13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>AND($B$3&lt;2, D13&lt;&gt;C13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>AND($B$3&lt;4, D13&lt;&gt;C13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="expression" dxfId="108" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>G13=F13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>AND($B$3&lt;2, G13&lt;&gt;F13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND($B$3&lt;4, G13&lt;&gt;F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:I11">
-    <cfRule type="expression" dxfId="105" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I13=H13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND($B$3&lt;2, I13&lt;&gt;H13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND($B$3&lt;4, I13&lt;&gt;H13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:G6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>G8=F8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND($B$3&lt;2, G8&lt;&gt;F8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND($B$3&lt;4, G8&lt;&gt;F8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1996,31 +1226,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C714AA-22DD-1F49-8E8E-1C66F1FC6FCA}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2418,6 +1649,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="31" id="{36F5F4DC-D6B8-204A-B5AA-CF8E8C8B7582}">
+            <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="expression" priority="32" id="{1EF4FE21-B883-F445-9F13-AF41FA244BF7}">
             <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
@@ -2427,16 +1668,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="31" id="{36F5F4DC-D6B8-204A-B5AA-CF8E8C8B7582}">
-            <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.499984740745262"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2497,37 +1728,48 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Can't Change Cell Value" error="The cell that you are trying to modify is unable to be modified. It is either past the due date, the number entered is outside the bounds, or it is not a number." xr:uid="{C3D4DF6C-BC47-3443-B08D-3E3E06D328D9}">
+          <x14:formula1>
+            <xm:f>AND(FillOrder!$B$2&lt;$B3, C3 &gt; -1, ISNUMBER(C3), NOT(C3=""))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:J13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE05CBBA-7A13-B845-8E05-8C1CA20BBA06}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2915,6 +2157,7 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -2926,7 +2169,20 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{DA47B4CC-8F62-C249-88AF-A5508F239A7B}">
+          <x14:cfRule type="expression" priority="12" id="{1EDF2F9F-53E4-C34B-9ED5-9D97CFE345D4}">
+            <xm:f>AND(FilledForm!C3&gt;=C3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="13" id="{DA47B4CC-8F62-C249-88AF-A5508F239A7B}">
             <xm:f>AND(FilledForm!C3&lt;C3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3)</xm:f>
             <x14:dxf>
               <font>
@@ -2939,15 +2195,18 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="9" id="{1EDF2F9F-53E4-C34B-9ED5-9D97CFE345D4}">
-            <xm:f>AND(FilledForm!C3&gt;=C3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
+          <xm:sqref>C3:J13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{576B02A1-78E4-B44E-B026-C9E04B395761}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FF006100"/>
+                <color rgb="FF9C5700"/>
               </font>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFFFEB9C"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2955,28 +2214,15 @@
           <xm:sqref>C3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{F00E28BE-4497-6A43-B9EB-C6E3592F86B0}">
-            <xm:f>AND(FilledForm!D3&gt;=D3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
+          <x14:cfRule type="expression" priority="2" id="{94D1E6CD-6757-B64D-8FD7-4C2C507B0D31}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FF006100"/>
+                <color rgb="FF9C5700"/>
               </font>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{C8CB4441-19CA-8D44-914B-AFC657CD3E22}">
-            <xm:f>AND(FilledForm!D3&lt;D3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3)</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFEB9C"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2984,28 +2230,15 @@
           <xm:sqref>D3:J3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{6F699458-E7BE-B841-B4FB-0EBA5A30B891}">
-            <xm:f>AND(FilledForm!C4&gt;=C4, FillOrder!$B$2 &gt;= $B4, FillOrder!$B$2 &gt; $A4 )</xm:f>
+          <x14:cfRule type="expression" priority="1" id="{D200DA92-284D-294E-9D0D-C1083260F6FA}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A4, FillOrder!$B$2 &lt; $B4)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FF006100"/>
+                <color rgb="FF9C5700"/>
               </font>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{80EF0B66-0299-CC4F-9BCC-238479A1C875}">
-            <xm:f>AND(FilledForm!C4&lt;C4, FillOrder!$B$2 &gt;= $B4, FillOrder!$B$2 &gt; $A4)</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFEB9C"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3014,6 +2247,16 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Can't Change Cell Value" error="The cell that you are trying to modify is unable to be modified. It is either past the due date, the number entered is outside the bounds, or it is not a number." xr:uid="{A6DC216A-71B0-4741-853C-4800C51DDE59}">
+          <x14:formula1>
+            <xm:f>AND(FillOrder!$B$2&lt;$B3, C3 &gt; -1, ISNUMBER(C3), NOT(C3=""))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:J13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
   </extLst>
 </worksheet>
 </file>
--- a/imagingTransaction.xlsx
+++ b/imagingTransaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/Documents/GitHub/Imaging_Transactions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADD9370-D4D1-D948-A995-3932FEE91ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7EB56-495F-CB49-B17C-20BCB26020C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="27200" windowHeight="16420" activeTab="2" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="27200" windowHeight="16420" activeTab="1" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
   </bookViews>
   <sheets>
     <sheet name="FillOrder" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -138,7 +138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,17 +150,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,17 +835,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -852,17 +855,17 @@
         <f ca="1">TODAY()</f>
         <v>43763</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="8">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 1, TRUE)</f>
         <v>43763</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 2, TRUE)</f>
         <v>43770</v>
       </c>
@@ -877,36 +880,36 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -924,10 +927,10 @@
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -935,7 +938,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 3, TRUE)</f>
         <v>0</v>
       </c>
@@ -969,36 +972,36 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1066,58 +1069,64 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>7040</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>7010</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>7040</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>7050</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>7020</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>7050</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7">
         <v>3020</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="H6:I6"/>
@@ -1125,12 +1134,6 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" dxfId="34" priority="25">
@@ -1229,29 +1232,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1292,28 +1295,28 @@
       <c r="B3" s="1">
         <v>43763</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
         <v>6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="13">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1324,28 +1327,28 @@
       <c r="B4" s="1">
         <v>43770</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1356,28 +1359,28 @@
       <c r="B5" s="1">
         <v>43777</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1388,28 +1391,28 @@
       <c r="B6" s="1">
         <v>43784</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1420,28 +1423,28 @@
       <c r="B7" s="1">
         <v>43791</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1452,28 +1455,28 @@
       <c r="B8" s="1">
         <v>43798</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1484,28 +1487,28 @@
       <c r="B9" s="1">
         <v>43805</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1516,28 +1519,28 @@
       <c r="B10" s="1">
         <v>43812</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1548,28 +1551,28 @@
       <c r="B11" s="1">
         <v>43819</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1580,28 +1583,28 @@
       <c r="B12" s="1">
         <v>43826</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1615,28 @@
       <c r="B13" s="1">
         <v>43833</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1747,29 +1750,29 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B13" sqref="A3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1804,355 +1807,355 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <v>43756</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="12">
         <v>43763</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="13">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="13">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="13">
         <v>6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="13">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="13">
         <v>2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="13">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="13">
         <v>4</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <v>43763</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>43770</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="12">
         <v>43770</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>43777</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <v>43777</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="12">
         <v>43784</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="12">
         <v>43784</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="12">
         <v>43791</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>0</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="12">
         <v>43791</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <v>43798</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="12">
         <v>43798</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="12">
         <v>43805</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <v>43805</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <v>43812</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="12">
         <v>43812</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="12">
         <v>43819</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="12">
         <v>43819</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="12">
         <v>43826</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="12">
         <v>43826</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <v>43833</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <v>0</v>
       </c>
     </row>

--- a/imagingTransaction.xlsx
+++ b/imagingTransaction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/Documents/GitHub/Imaging_Transactions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7EB56-495F-CB49-B17C-20BCB26020C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D7062-D7B1-7F41-99A6-3B7334E10583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="27200" windowHeight="16420" activeTab="1" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="27200" windowHeight="16420" activeTab="2" xr2:uid="{3F922648-1354-2941-B1FF-2D667D1677CA}"/>
   </bookViews>
   <sheets>
     <sheet name="FillOrder" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="20">
   <si>
     <t>VDI (Micro)</t>
   </si>
@@ -88,6 +88,12 @@
   <si>
     <t>Win7 (Micro)</t>
   </si>
+  <si>
+    <t>G North</t>
+  </si>
+  <si>
+    <t>G South</t>
+  </si>
 </sst>
 </file>
 
@@ -129,15 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -153,9 +153,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -163,14 +160,25 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="59">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -183,6 +191,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -193,6 +221,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -232,6 +280,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
@@ -283,6 +391,81 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -304,6 +487,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -314,6 +517,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -343,22 +586,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -823,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7861EF8B-E02F-E440-A92D-81512D641530}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,825 +1064,1404 @@
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1">
         <f ca="1">TODAY()</f>
+        <v>43768</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 1, TRUE)</f>
         <v>43763</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 1, TRUE)</f>
-        <v>43763</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 2, TRUE)</f>
+      <c r="I2" s="6">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 2, TRUE)</f>
         <v>43770</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
         <f ca="1">I2-B2</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 3, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 3, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 4, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 4, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 5, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 5, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 6, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 6, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 3, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 3, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 4, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 4, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 5, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 5, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 6, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 6, TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 7, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 7, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 8, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 8, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 9, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 9, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 10, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 10, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 7, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 7, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 8, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 8, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 9, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 9, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <f ca="1">VLOOKUP(B2, RequestForm!A3:J13, 10, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <f ca="1">VLOOKUP(B2, FilledForm!A3:J13, 10, TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 11, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 11, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 12, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 12, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 13, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 13, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 14, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 14, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 15, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 15, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:P13, 16, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:P13, 16, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:Q13, 17, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:Q13, 17, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <f ca="1">VLOOKUP(B2, RequestForm!A3:R13, 18, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <f ca="1">VLOOKUP(B2, FilledForm!A3:R13, 18, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>7040</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B28" s="5">
         <v>7010</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C28" s="5">
         <v>7040</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D28" s="5">
         <v>790</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>7050</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B29" s="5">
         <v>7020</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C29" s="5">
         <v>7050</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D29" s="5">
         <v>990</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5">
         <v>3020</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="17">
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="34" priority="25">
-      <formula>B8=A8</formula>
+  <conditionalFormatting sqref="B6 D11 D21 D16">
+    <cfRule type="expression" dxfId="58" priority="40">
+      <formula>C8=B8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26">
-      <formula>AND($B$3&lt;2, B8&lt;&gt;A8)</formula>
+    <cfRule type="expression" dxfId="57" priority="41">
+      <formula>AND($B$3&lt;2, C8&lt;&gt;B8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="27">
-      <formula>AND($B$3&lt;4, B8&lt;&gt;A8)</formula>
+    <cfRule type="expression" dxfId="56" priority="42">
+      <formula>AND($B$3&lt;4, C8&lt;&gt;B8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:D6">
-    <cfRule type="expression" dxfId="31" priority="22">
-      <formula>D8=C8</formula>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="55" priority="37">
+      <formula>E8=D8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="23">
-      <formula>AND($B$3&lt;2, D8&lt;&gt;C8)</formula>
+    <cfRule type="expression" dxfId="54" priority="38">
+      <formula>AND($B$3&lt;2, E8&lt;&gt;D8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="24">
-      <formula>AND($B$3&lt;4, D8&lt;&gt;C8)</formula>
+    <cfRule type="expression" dxfId="53" priority="39">
+      <formula>AND($B$3&lt;4, E8&lt;&gt;D8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
-    <cfRule type="expression" dxfId="28" priority="16">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="52" priority="28">
+      <formula>C18=B18</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="29">
+      <formula>AND($B$3&lt;2, C18&lt;&gt;B18)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="30">
+      <formula>AND($B$3&lt;4, C18&lt;&gt;B18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="49" priority="22">
+      <formula>C23=B23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="23">
+      <formula>AND($B$3&lt;2, C23&lt;&gt;B23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="24">
+      <formula>AND($B$3&lt;4, C23&lt;&gt;B23)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="46" priority="16">
+      <formula>C13=B13</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="17">
+      <formula>AND($B$3&lt;2, C13&lt;&gt;B13)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="18">
+      <formula>AND($B$3&lt;4, C13&lt;&gt;B13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>G8=F8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>AND($B$3&lt;2, G8&lt;&gt;F8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>AND($B$3&lt;4, G8&lt;&gt;F8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>I8=H8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>AND($B$3&lt;2, I8&lt;&gt;H8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>AND($B$3&lt;4, I8&lt;&gt;H8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="expression" dxfId="25" priority="13">
-      <formula>B13=A13</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14">
-      <formula>AND($B$3&lt;2, B13&lt;&gt;A13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="15">
-      <formula>AND($B$3&lt;4, B13&lt;&gt;A13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="22" priority="10">
-      <formula>D13=C13</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
-      <formula>AND($B$3&lt;2, D13&lt;&gt;C13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>AND($B$3&lt;4, D13&lt;&gt;C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G11">
-    <cfRule type="expression" dxfId="19" priority="7">
+  <conditionalFormatting sqref="F11 H11">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>G13=F13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND($B$3&lt;2, G13&lt;&gt;F13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>AND($B$3&lt;4, G13&lt;&gt;F13)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:I11">
-    <cfRule type="expression" dxfId="16" priority="4">
-      <formula>I13=H13</formula>
+  <conditionalFormatting sqref="F16 H16">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>G18=F18</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
-      <formula>AND($B$3&lt;2, I13&lt;&gt;H13)</formula>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND($B$3&lt;2, G18&lt;&gt;F18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>AND($B$3&lt;4, I13&lt;&gt;H13)</formula>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>AND($B$3&lt;4, G18&lt;&gt;F18)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G6">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>G8=F8</formula>
+  <conditionalFormatting sqref="F21 H21">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>G23=F23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>AND($B$3&lt;2, G8&lt;&gt;F8)</formula>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($B$3&lt;2, G23&lt;&gt;F23)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
-      <formula>AND($B$3&lt;4, G8&lt;&gt;F8)</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND($B$3&lt;4, G23&lt;&gt;F23)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C714AA-22DD-1F49-8E8E-1C66F1FC6FCA}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="C4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43756</v>
       </c>
       <c r="B3" s="1">
         <v>43763</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
         <v>6</v>
       </c>
-      <c r="F3" s="13">
+      <c r="H3" s="14">
         <v>6</v>
       </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43763</v>
       </c>
       <c r="B4" s="1">
         <v>43770</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43770</v>
       </c>
       <c r="B5" s="1">
         <v>43777</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43777</v>
       </c>
       <c r="B6" s="1">
         <v>43784</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43784</v>
       </c>
       <c r="B7" s="1">
         <v>43791</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43791</v>
       </c>
       <c r="B8" s="1">
         <v>43798</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43798</v>
       </c>
       <c r="B9" s="1">
         <v>43805</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43805</v>
       </c>
       <c r="B10" s="1">
         <v>43812</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43812</v>
       </c>
       <c r="B11" s="1">
         <v>43819</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43819</v>
       </c>
       <c r="B12" s="1">
         <v>43826</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43826</v>
       </c>
       <c r="B13" s="1">
         <v>43833</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43917</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="31" id="{36F5F4DC-D6B8-204A-B5AA-CF8E8C8B7582}">
+          <x14:cfRule type="expression" priority="45" id="{36F5F4DC-D6B8-204A-B5AA-CF8E8C8B7582}">
             <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
             <x14:dxf>
               <fill>
@@ -1662,7 +2471,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="32" id="{1EF4FE21-B883-F445-9F13-AF41FA244BF7}">
+          <x14:cfRule type="expression" priority="46" id="{1EF4FE21-B883-F445-9F13-AF41FA244BF7}">
             <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
@@ -1675,10 +2484,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>O3:P3 K3:L3 C3:D13 G3:H3 G5:H13 K5:L13 O5:P13 E4:R4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{1540F877-2035-7343-BEB7-B82720FC5241}">
+          <x14:cfRule type="expression" priority="13" id="{20A35769-7096-B345-8567-58590449B9F0}">
             <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
             <x14:dxf>
               <fill>
@@ -1688,7 +2497,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{7A1FC002-E53B-884A-AB7A-2EC7D2B6EA9F}">
+          <x14:cfRule type="expression" priority="14" id="{A3CB8580-5A7E-C84B-8804-381BE32ED213}">
             <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
@@ -1701,11 +2510,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D3:J3</xm:sqref>
+          <xm:sqref>E3:F3 E5:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{FFD34606-84B9-A141-9B98-B66CBD4B84C1}">
-            <xm:f>FillOrder!$B$2&gt;=$B4</xm:f>
+          <x14:cfRule type="expression" priority="5" id="{6FC1D97E-C8B0-4449-B110-0F63C4218A06}">
+            <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -1714,8 +2523,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{FAF1374A-1EE2-0C43-8543-C785868DFC01}">
-            <xm:f>AND(FillOrder!$B$2 &gt;= $A4, FillOrder!$B$2 &lt; $B4)</xm:f>
+          <x14:cfRule type="expression" priority="6" id="{A85DA3B5-AD53-7644-AFFD-0A3134B36ADB}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C5700"/>
@@ -1727,7 +2536,59 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4:J13</xm:sqref>
+          <xm:sqref>I3:J3 I5:J13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{8A8CBDD7-AD2E-3D45-BCE3-5CD5CD9A8EC6}">
+            <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{51FE04FB-3DCE-754A-B6F0-14344B2903F8}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M3:N3 M5:N13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{DF3260AD-50BA-154B-AA69-7ACFACFBA06D}">
+            <xm:f>FillOrder!$B$2&gt;=$B3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{62A9ECC9-65FD-9742-A2BD-DAC2C0044AA9}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q3:R3 Q5:R13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1737,7 +2598,7 @@
           <x14:formula1>
             <xm:f>AND(FillOrder!$B$2&lt;$B3, C3 &gt; -1, ISNUMBER(C3), NOT(C3=""))</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:J13</xm:sqref>
+          <xm:sqref>C3:R13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1748,431 +2609,825 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE05CBBA-7A13-B845-8E05-8C1CA20BBA06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="A3:B13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="Q2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>43756</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>43763</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="14">
         <v>6</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>6</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
         <v>6</v>
       </c>
-      <c r="F3" s="13">
+      <c r="H3" s="14">
         <v>6</v>
       </c>
-      <c r="G3" s="13">
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="L3" s="14">
         <v>2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
         <v>4</v>
       </c>
-      <c r="J3" s="13">
+      <c r="P3" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>43763</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>43770</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>43770</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>43777</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>43777</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>43784</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>43784</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>43791</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>43791</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>43798</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>43798</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>43805</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>43805</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>43812</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>43812</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>43819</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>43819</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>43826</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>43826</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>43833</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>43833</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>43840</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>43847</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>43854</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>43861</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>43868</v>
+      </c>
+      <c r="B19" s="9">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>43875</v>
+      </c>
+      <c r="B20" s="9">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>43882</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>43889</v>
+      </c>
+      <c r="B22" s="9">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>43896</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>43903</v>
+      </c>
+      <c r="B24" s="9">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>43910</v>
+      </c>
+      <c r="B25" s="9">
+        <v>43917</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="12" id="{1EDF2F9F-53E4-C34B-9ED5-9D97CFE345D4}">
+          <x14:cfRule type="expression" priority="24" id="{1EDF2F9F-53E4-C34B-9ED5-9D97CFE345D4}">
             <xm:f>AND(FilledForm!C3&gt;=C3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
             <x14:dxf>
               <font>
@@ -2185,7 +3440,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="13" id="{DA47B4CC-8F62-C249-88AF-A5508F239A7B}">
+          <x14:cfRule type="expression" priority="25" id="{DA47B4CC-8F62-C249-88AF-A5508F239A7B}">
             <xm:f>AND(FilledForm!C3&lt;C3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3)</xm:f>
             <x14:dxf>
               <font>
@@ -2198,10 +3453,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C3:J13</xm:sqref>
+          <xm:sqref>C3:D13 K3:R3 G3:H3 G5:H13 K5:R13 E4:R4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{576B02A1-78E4-B44E-B026-C9E04B395761}">
+          <x14:cfRule type="expression" priority="15" id="{576B02A1-78E4-B44E-B026-C9E04B395761}">
             <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
@@ -2214,10 +3469,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C3:D13 G3:H3 K3:L3 O3:P3 O5:P13 K5:L13 G5:H13 E4:R4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{94D1E6CD-6757-B64D-8FD7-4C2C507B0D31}">
+          <x14:cfRule type="expression" priority="10" id="{6B87B7C5-DF29-F54C-9981-4E614F48A2B6}">
             <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
@@ -2230,11 +3485,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D3:J3</xm:sqref>
+          <xm:sqref>E3:F3 E5:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{D200DA92-284D-294E-9D0D-C1083260F6FA}">
-            <xm:f>AND(FillOrder!$B$2 &gt;= $A4, FillOrder!$B$2 &lt; $B4)</xm:f>
+          <x14:cfRule type="expression" priority="7" id="{608C3CE9-A3EC-1A41-9BD7-9C3EF86071D0}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C5700"/>
@@ -2246,7 +3501,97 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4:J13</xm:sqref>
+          <xm:sqref>I3:J3 I5:J13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{778BD5EF-31BA-7149-87B8-F11D53338475}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M3:N3 M5:N13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{984A177D-B7C5-404E-87F8-28546E96CE47}">
+            <xm:f>AND(FillOrder!$B$2 &gt;= $A3, FillOrder!$B$2 &lt; $B3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q3:R3 Q5:R13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="86" id="{D337C191-DBC4-1A4B-BB24-18D55F317EDF}">
+            <xm:f>AND(FilledForm!O3&gt;=I3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="87" id="{A3B863AA-027E-B549-8892-ADE07022CF70}">
+            <xm:f>AND(FilledForm!O3&lt;I3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I3:J3 I5:J13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="94" id="{1EDF2F9F-53E4-C34B-9ED5-9D97CFE345D4}">
+            <xm:f>AND(FilledForm!G3&gt;=E3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3 )</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="95" id="{DA47B4CC-8F62-C249-88AF-A5508F239A7B}">
+            <xm:f>AND(FilledForm!G3&lt;E3, FillOrder!$B$2 &gt;= $B3, FillOrder!$B$2 &gt; $A3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E3:F3 E5:F13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2256,7 +3601,7 @@
           <x14:formula1>
             <xm:f>AND(FillOrder!$B$2&lt;$B3, C3 &gt; -1, ISNUMBER(C3), NOT(C3=""))</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:J13</xm:sqref>
+          <xm:sqref>C3:R13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
